--- a/Projects/Project_5/game_four(2).xlsx
+++ b/Projects/Project_5/game_four(2).xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22724"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16CAA5C2-02B1-425A-94CB-91729B30FDDC}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Operation_Research\Projects\Project_5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5356D72-3B5E-4561-83A3-9447265E3E57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24270" yWindow="3600" windowWidth="13080" windowHeight="17730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,9 +29,41 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,31 +411,31 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F6"/>
+      <selection activeCell="I17" sqref="I16:I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -416,9 +453,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>-4</v>
@@ -436,9 +473,9 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -456,9 +493,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
